--- a/_xlsx设计/Check Rule.xlsx
+++ b/_xlsx设计/Check Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,14 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dict</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,18 +185,6 @@
   </si>
   <si>
     <t>'**'表示上述检查规则</t>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>集合类型</t>
@@ -290,6 +270,14 @@
       </rPr>
       <t>:只能引用表键</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict.key:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict.value:**</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -876,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1011,62 +999,48 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>42</v>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="A2:A3"/>

--- a/_xlsx设计/Check Rule.xlsx
+++ b/_xlsx设计/Check Rule.xlsx
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:dirPath[:ext]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>dict.value:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:dirPath[:ext]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -415,18 +415,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,6 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +757,7 @@
     <col min="5" max="5" width="27.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -773,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -787,258 +788,269 @@
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="D9:D14"/>
@@ -1055,14 +1067,6 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
